--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>185.06937</v>
-      </c>
-      <c r="C2" t="n">
-        <v>941.77852</v>
-      </c>
-      <c r="D2" t="n">
-        <v>161.71142</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1147</v>
-      </c>
-      <c r="F2" t="n">
-        <v>154.69288</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645.4301</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282.09848</v>
-      </c>
-      <c r="I2" t="n">
-        <v>255.32935</v>
-      </c>
-      <c r="J2" t="n">
-        <v>146.24836</v>
-      </c>
-      <c r="K2" t="n">
-        <v>419.69355</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11054.36</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67.90716</v>
-      </c>
-      <c r="N2" t="n">
-        <v>144.08692</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464.06278</v>
-      </c>
-      <c r="P2" t="n">
-        <v>132.54268</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.89067</v>
-      </c>
-      <c r="R2" t="n">
-        <v>355.37248</v>
-      </c>
-      <c r="S2" t="n">
-        <v>93.44974000000001</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>156.11809</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7.68024</v>
-      </c>
-      <c r="W2" t="n">
-        <v>17.39873</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.43537</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>940.64637</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1693.26064</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>667.5761199999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>178.2362</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>57.31243</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>31.77956</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>496.78411</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11.78651</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>332.53563</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>415.38093</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>556.88226</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.77871</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>285.51284</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>253.1825</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>329.30093</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>160.82735</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.46358</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>220.2949</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1075.69621</v>
-      </c>
-      <c r="D3" t="n">
-        <v>187.92547</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>186.78726</v>
-      </c>
-      <c r="G3" t="n">
-        <v>752.24136</v>
-      </c>
-      <c r="H3" t="n">
-        <v>147.56136</v>
-      </c>
-      <c r="I3" t="n">
-        <v>274.64805</v>
-      </c>
-      <c r="J3" t="n">
-        <v>183.57907</v>
-      </c>
-      <c r="K3" t="n">
-        <v>509.20637</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12794.29</v>
-      </c>
-      <c r="M3" t="n">
-        <v>82.57738999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>165.24922</v>
-      </c>
-      <c r="O3" t="n">
-        <v>543.54156</v>
-      </c>
-      <c r="P3" t="n">
-        <v>117.9314</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.52407</v>
-      </c>
-      <c r="R3" t="n">
-        <v>380.64898</v>
-      </c>
-      <c r="S3" t="n">
-        <v>110.51094</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>170.25269</v>
-      </c>
-      <c r="V3" t="n">
-        <v>12.52648</v>
-      </c>
-      <c r="W3" t="n">
-        <v>18.1475</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11.99229</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1139.43873</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1962.88916</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>811.8815</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>196.63048</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>201.421</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>96.46639</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>589.28848</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18.75727</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>366.22322</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>493.33907</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>593.4010500000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.0962</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>310.6375</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>274.15227</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>370.37175</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>206.63857</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.81352</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>272.24407</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1253.39297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>235.48882</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>212.83925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>819.48563</v>
-      </c>
-      <c r="H4" t="n">
-        <v>171.03421</v>
-      </c>
-      <c r="I4" t="n">
-        <v>314.61997</v>
-      </c>
-      <c r="J4" t="n">
-        <v>195.20801</v>
-      </c>
-      <c r="K4" t="n">
-        <v>574.51036</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14359.94</v>
-      </c>
-      <c r="M4" t="n">
-        <v>95.50588999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186.9579</v>
-      </c>
-      <c r="O4" t="n">
-        <v>593.49107</v>
-      </c>
-      <c r="P4" t="n">
-        <v>167.76623</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.11137</v>
-      </c>
-      <c r="R4" t="n">
-        <v>426.79781</v>
-      </c>
-      <c r="S4" t="n">
-        <v>106.63451</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>210.42385</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.3728</v>
-      </c>
-      <c r="W4" t="n">
-        <v>25.38392</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.64496</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1285.27628</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2197.77278</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>857.99983</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>242.89678</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>230.54358</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>93.96720999999999</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>674.09456</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>43.16105</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>397.17267</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>533.61022</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>639.02278</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.88883</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>352.82619</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>326.84364</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>371.27977</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>219.48922</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.96992</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
